--- a/natmiOut/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H2">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I2">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J2">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N2">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O2">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P2">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q2">
-        <v>254.0455753545919</v>
+        <v>290.2153169854472</v>
       </c>
       <c r="R2">
-        <v>254.0455753545919</v>
+        <v>2611.937852869024</v>
       </c>
       <c r="S2">
-        <v>0.006755469098752574</v>
+        <v>0.005823502408704753</v>
       </c>
       <c r="T2">
-        <v>0.006755469098752574</v>
+        <v>0.005823502408704754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H3">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I3">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J3">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N3">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P3">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q3">
-        <v>257.1012284444043</v>
+        <v>268.10313428146</v>
       </c>
       <c r="R3">
-        <v>257.1012284444043</v>
+        <v>2412.92820853314</v>
       </c>
       <c r="S3">
-        <v>0.006836723692523488</v>
+        <v>0.005379796161302082</v>
       </c>
       <c r="T3">
-        <v>0.006836723692523488</v>
+        <v>0.005379796161302083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H4">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I4">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J4">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N4">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O4">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P4">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q4">
-        <v>1510.910340858657</v>
+        <v>1795.524010612912</v>
       </c>
       <c r="R4">
-        <v>1510.910340858657</v>
+        <v>16159.71609551621</v>
       </c>
       <c r="S4">
-        <v>0.04017746856803064</v>
+        <v>0.03602924376736408</v>
       </c>
       <c r="T4">
-        <v>0.04017746856803064</v>
+        <v>0.03602924376736408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.638978499366</v>
+        <v>24.50527833333333</v>
       </c>
       <c r="H5">
-        <v>23.638978499366</v>
+        <v>73.515835</v>
       </c>
       <c r="I5">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="J5">
-        <v>0.05490555508146179</v>
+        <v>0.04846830138877924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N5">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O5">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P5">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q5">
-        <v>42.71631917313399</v>
+        <v>61.58428032690889</v>
       </c>
       <c r="R5">
-        <v>42.71631917313399</v>
+        <v>554.25852294218</v>
       </c>
       <c r="S5">
-        <v>0.00113589372215509</v>
+        <v>0.001235759051408325</v>
       </c>
       <c r="T5">
-        <v>0.00113589372215509</v>
+        <v>0.001235759051408325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H6">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I6">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J6">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N6">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O6">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P6">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q6">
-        <v>1183.170133239501</v>
+        <v>1305.072944439242</v>
       </c>
       <c r="R6">
-        <v>1183.170133239501</v>
+        <v>11745.65649995318</v>
       </c>
       <c r="S6">
-        <v>0.03146234396135467</v>
+        <v>0.02618778193522582</v>
       </c>
       <c r="T6">
-        <v>0.03146234396135467</v>
+        <v>0.02618778193522583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H7">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I7">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J7">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N7">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P7">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q7">
-        <v>1197.401270579173</v>
+        <v>1205.636389231792</v>
       </c>
       <c r="R7">
-        <v>1197.401270579173</v>
+        <v>10850.72750308613</v>
       </c>
       <c r="S7">
-        <v>0.03184077215639041</v>
+        <v>0.02419247367658927</v>
       </c>
       <c r="T7">
-        <v>0.03184077215639041</v>
+        <v>0.02419247367658927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H8">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I8">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J8">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N8">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O8">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P8">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q8">
-        <v>7036.784588007451</v>
+        <v>8074.314724951111</v>
       </c>
       <c r="R8">
-        <v>7036.784588007451</v>
+        <v>72668.83252455998</v>
       </c>
       <c r="S8">
-        <v>0.1871191055876953</v>
+        <v>0.1620203638381736</v>
       </c>
       <c r="T8">
-        <v>0.1871191055876953</v>
+        <v>0.1620203638381736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.094156537472</v>
+        <v>110.1980973333333</v>
       </c>
       <c r="H9">
-        <v>110.094156537472</v>
+        <v>330.594292</v>
       </c>
       <c r="I9">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="J9">
-        <v>0.2557124359699962</v>
+        <v>0.2179577200213544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N9">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O9">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P9">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q9">
-        <v>198.9433312390279</v>
+        <v>276.9391322699929</v>
       </c>
       <c r="R9">
-        <v>198.9433312390279</v>
+        <v>2492.452190429936</v>
       </c>
       <c r="S9">
-        <v>0.005290214264555814</v>
+        <v>0.005557100571365705</v>
       </c>
       <c r="T9">
-        <v>0.005290214264555814</v>
+        <v>0.005557100571365705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H10">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I10">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J10">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N10">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O10">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P10">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q10">
-        <v>3035.247003911932</v>
+        <v>4165.412631635024</v>
       </c>
       <c r="R10">
-        <v>3035.247003911932</v>
+        <v>37488.71368471521</v>
       </c>
       <c r="S10">
-        <v>0.08071196403790375</v>
+        <v>0.08358377064843941</v>
       </c>
       <c r="T10">
-        <v>0.08071196403790375</v>
+        <v>0.08358377064843944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H11">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I11">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J11">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N11">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O11">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P11">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q11">
-        <v>3071.75487015956</v>
+        <v>3848.040116273167</v>
       </c>
       <c r="R11">
-        <v>3071.75487015956</v>
+        <v>34632.36104645851</v>
       </c>
       <c r="S11">
-        <v>0.08168276528863606</v>
+        <v>0.077215327980201</v>
       </c>
       <c r="T11">
-        <v>0.08168276528863606</v>
+        <v>0.07721532798020103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H12">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I12">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J12">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N12">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O12">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P12">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q12">
-        <v>18051.82427944184</v>
+        <v>25770.860311229</v>
       </c>
       <c r="R12">
-        <v>18051.82427944184</v>
+        <v>231937.742801061</v>
       </c>
       <c r="S12">
-        <v>0.4800262351574807</v>
+        <v>0.517121799964684</v>
       </c>
       <c r="T12">
-        <v>0.4800262351574807</v>
+        <v>0.517121799964684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>282.430184291113</v>
+        <v>351.7202226666666</v>
       </c>
       <c r="H13">
-        <v>282.430184291113</v>
+        <v>1055.160668</v>
       </c>
       <c r="I13">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665283</v>
       </c>
       <c r="J13">
-        <v>0.655992222366081</v>
+        <v>0.6956575446665284</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N13">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O13">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P13">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q13">
-        <v>510.3595274486926</v>
+        <v>883.9090295041938</v>
       </c>
       <c r="R13">
-        <v>510.3595274486926</v>
+        <v>7955.181265537744</v>
       </c>
       <c r="S13">
-        <v>0.01357125788206053</v>
+        <v>0.01773664607320389</v>
       </c>
       <c r="T13">
-        <v>0.01357125788206053</v>
+        <v>0.01773664607320389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H14">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I14">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J14">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N14">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O14">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P14">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q14">
-        <v>154.4930659697919</v>
+        <v>227.0335368626472</v>
       </c>
       <c r="R14">
-        <v>154.4930659697919</v>
+        <v>2043.301831763825</v>
       </c>
       <c r="S14">
-        <v>0.004108212204340631</v>
+        <v>0.004555687695982922</v>
       </c>
       <c r="T14">
-        <v>0.004108212204340631</v>
+        <v>0.004555687695982922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H15">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I15">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J15">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N15">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O15">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P15">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q15">
-        <v>156.3513042552895</v>
+        <v>209.73532152658</v>
       </c>
       <c r="R15">
-        <v>156.3513042552895</v>
+        <v>1887.61789373922</v>
       </c>
       <c r="S15">
-        <v>0.004157625666071964</v>
+        <v>0.004208579212108749</v>
       </c>
       <c r="T15">
-        <v>0.004157625666071964</v>
+        <v>0.004208579212108749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H16">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I16">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J16">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N16">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O16">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P16">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q16">
-        <v>918.8318695923236</v>
+        <v>1404.626643712592</v>
       </c>
       <c r="R16">
-        <v>918.8318695923236</v>
+        <v>12641.63979341333</v>
       </c>
       <c r="S16">
-        <v>0.02443317618626576</v>
+        <v>0.02818544082358455</v>
       </c>
       <c r="T16">
-        <v>0.02443317618626576</v>
+        <v>0.02818544082358455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.3756027227145</v>
+        <v>19.17031833333333</v>
       </c>
       <c r="H17">
-        <v>14.3756027227145</v>
+        <v>57.510955</v>
       </c>
       <c r="I17">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="J17">
-        <v>0.03338978658246092</v>
+        <v>0.03791643392333802</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N17">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O17">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P17">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q17">
-        <v>25.97713070495479</v>
+        <v>48.17697812434889</v>
       </c>
       <c r="R17">
-        <v>25.97713070495479</v>
+        <v>433.59280311914</v>
       </c>
       <c r="S17">
-        <v>0.0006907725257825743</v>
+        <v>0.0009667261916617947</v>
       </c>
       <c r="T17">
-        <v>0.0006907725257825743</v>
+        <v>0.0009667261916617947</v>
       </c>
     </row>
   </sheetData>
